--- a/data/protocol.xlsx
+++ b/data/protocol.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1_proj\42_Covid-19_diag\200327_RNAseAlertTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1_R\aRmy\200327_RNAseAlert\RNAseAlert\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F600130-D11E-4D3D-B5FA-A5DB80144041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8FE2B0-DEF0-4EF1-ABDC-E27C3BC1B7E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{B71D8376-705B-41E7-9CDB-B020889DE343}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="107">
   <si>
     <t>20mM HEPES pH7.0</t>
   </si>
@@ -248,13 +248,118 @@
   </si>
   <si>
     <t>Incubate at  37°C (in Varioscan) for at lease 24min.</t>
+  </si>
+  <si>
+    <t>2004xx: RNAseAlert kit: test 04 - Cas13 RNAse activity</t>
+  </si>
+  <si>
+    <t>Cas13 protein 10x stock (as NM protocol) Cas13 diluted in strorage buffer (SB)</t>
+  </si>
+  <si>
+    <t>substrate</t>
+  </si>
+  <si>
+    <t>pipetting order/ treatment -&gt;</t>
+  </si>
+  <si>
+    <t>RNAse</t>
+  </si>
+  <si>
+    <t>DEPC</t>
+  </si>
+  <si>
+    <t>MgCl2</t>
+  </si>
+  <si>
+    <t>Imidazole</t>
+  </si>
+  <si>
+    <t>Cas13</t>
+  </si>
+  <si>
+    <t>Cas13 in SB</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>Chemicals used in the assay</t>
+  </si>
+  <si>
+    <t>guideRNA</t>
+  </si>
+  <si>
+    <t>Protocol:</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>target RNA</t>
+  </si>
+  <si>
+    <t>guide RNA</t>
+  </si>
+  <si>
+    <t>TCEP</t>
+  </si>
+  <si>
+    <t>RNAse (Benzoase) - simulated background</t>
+  </si>
+  <si>
+    <t>Cas 1x</t>
+  </si>
+  <si>
+    <t>Cas 0.2x</t>
+  </si>
+  <si>
+    <t>Cas 5x</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>Benzoase(TM) nuclease 25U/ul (simulated background activity)</t>
+  </si>
+  <si>
+    <t>Storage buffer for Cas13</t>
+  </si>
+  <si>
+    <t>DTT</t>
+  </si>
+  <si>
+    <t>1M DTT</t>
+  </si>
+  <si>
+    <t>1M TCEP</t>
+  </si>
+  <si>
+    <t>1M HEPES, pH7.0</t>
+  </si>
+  <si>
+    <t>10/ measurement follows at 37°C</t>
+  </si>
+  <si>
+    <t>Volumes in ul per well. For 4 rplicates multiply by 4.1</t>
+  </si>
+  <si>
+    <t>Working in quadruplicates, pipet the same reaction in squares to achieve an even variances.</t>
+  </si>
+  <si>
+    <t>Incubate at  37°C (in Varioscan) and measure for up to one hour (e.g. 24min).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,8 +405,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,6 +438,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -421,6 +548,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -737,28 +889,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BB1D6F-07F8-43FE-AEB8-06D3358AB2F1}">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
-    <col min="2" max="2" width="8.54296875" customWidth="1"/>
-    <col min="3" max="3" width="7.54296875" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" customWidth="1"/>
-    <col min="8" max="8" width="25.81640625" customWidth="1"/>
-    <col min="9" max="9" width="19.7265625" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" customWidth="1"/>
-    <col min="11" max="11" width="30" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" customWidth="1"/>
+    <col min="5" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="9.1796875" customWidth="1"/>
-    <col min="13" max="13" width="40.54296875" customWidth="1"/>
-    <col min="14" max="14" width="12.81640625" customWidth="1"/>
+    <col min="13" max="13" width="12.7265625" customWidth="1"/>
+    <col min="14" max="14" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2080,6 +2225,917 @@
       </c>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
+    </row>
+    <row r="64" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A64" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A65" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A66" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A67" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A68" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A69" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A70" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A71" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A72" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A73" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A74" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A75" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A76" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A77" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A78" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A79" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A81" s="17"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="15"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A82" s="17"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="15"/>
+    </row>
+    <row r="83" spans="1:17" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B83" s="16">
+        <v>1</v>
+      </c>
+      <c r="C83" s="16">
+        <v>2</v>
+      </c>
+      <c r="D83" s="16">
+        <v>3</v>
+      </c>
+      <c r="E83" s="16">
+        <v>4</v>
+      </c>
+      <c r="F83" s="16">
+        <v>5</v>
+      </c>
+      <c r="G83" s="16">
+        <v>6</v>
+      </c>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="16">
+        <v>7</v>
+      </c>
+      <c r="K83" s="16">
+        <v>8</v>
+      </c>
+      <c r="L83" s="16">
+        <v>9</v>
+      </c>
+      <c r="M83" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+    </row>
+    <row r="84" spans="1:17" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E84" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="F84" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G84" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="H84" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="I84" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J84" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="K84" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="L84" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="M84" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="N84" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O84" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P84" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="30">
+        <v>1</v>
+      </c>
+      <c r="B85" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="C85" s="29">
+        <f>N85-B85-SUM(D85:M85)</f>
+        <v>44.5</v>
+      </c>
+      <c r="D85" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28">
+        <v>1</v>
+      </c>
+      <c r="H85" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="I85" s="28">
+        <v>1</v>
+      </c>
+      <c r="J85" s="28"/>
+      <c r="K85" s="28"/>
+      <c r="L85" s="28"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="18">
+        <v>50</v>
+      </c>
+      <c r="O85" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="P85" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A86" s="30">
+        <v>2</v>
+      </c>
+      <c r="B86" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="C86" s="29">
+        <f>N88-B86-SUM(D88:M88)</f>
+        <v>42</v>
+      </c>
+      <c r="D86">
+        <v>0.5</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>0.5</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>5</v>
+      </c>
+      <c r="N86" s="18">
+        <v>50</v>
+      </c>
+      <c r="O86" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A87" s="30">
+        <v>3</v>
+      </c>
+      <c r="B87" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="C87" s="29">
+        <f>N89-B87-SUM(D89:M89)</f>
+        <v>35.5</v>
+      </c>
+      <c r="D87">
+        <v>0.5</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>5</v>
+      </c>
+      <c r="N87" s="18">
+        <v>50</v>
+      </c>
+      <c r="O87" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A88" s="30">
+        <v>4</v>
+      </c>
+      <c r="B88" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="C88" s="29">
+        <f>N90-B88-SUM(D90:M90)</f>
+        <v>35.5</v>
+      </c>
+      <c r="D88">
+        <v>0.5</v>
+      </c>
+      <c r="M88">
+        <v>5</v>
+      </c>
+      <c r="N88" s="18">
+        <v>50</v>
+      </c>
+      <c r="P88" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A89" s="30">
+        <v>5</v>
+      </c>
+      <c r="B89" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="C89" s="29">
+        <f>N89-B89-SUM(D89:M89)</f>
+        <v>35.5</v>
+      </c>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="28">
+        <v>1</v>
+      </c>
+      <c r="K89" s="28">
+        <v>1</v>
+      </c>
+      <c r="L89" s="28">
+        <v>5</v>
+      </c>
+      <c r="M89" s="15">
+        <v>5</v>
+      </c>
+      <c r="N89" s="18">
+        <v>50</v>
+      </c>
+      <c r="O89" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="P89" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A90" s="30">
+        <v>6</v>
+      </c>
+      <c r="B90" s="15"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="28"/>
+      <c r="J90" s="28">
+        <v>1</v>
+      </c>
+      <c r="K90" s="28">
+        <v>1</v>
+      </c>
+      <c r="L90" s="28">
+        <v>5</v>
+      </c>
+      <c r="M90" s="15">
+        <v>5</v>
+      </c>
+      <c r="N90" s="18">
+        <v>50</v>
+      </c>
+      <c r="O90" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="P90" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A91" s="30">
+        <v>7</v>
+      </c>
+      <c r="B91" s="15"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="28">
+        <v>1</v>
+      </c>
+      <c r="K91" s="28">
+        <v>1</v>
+      </c>
+      <c r="L91" s="28">
+        <v>5</v>
+      </c>
+      <c r="M91" s="15">
+        <v>5</v>
+      </c>
+      <c r="N91" s="18">
+        <v>50</v>
+      </c>
+      <c r="O91" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="P91" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A92" s="36"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="28"/>
+      <c r="J92" s="28"/>
+      <c r="K92" s="28"/>
+      <c r="L92" s="28"/>
+      <c r="M92" s="28"/>
+      <c r="N92" s="28"/>
+      <c r="O92" s="28"/>
+      <c r="P92" s="28"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A93" s="36"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28"/>
+      <c r="I93" s="28"/>
+      <c r="J93" s="28"/>
+      <c r="K93" s="28"/>
+      <c r="L93" s="28"/>
+      <c r="M93" s="28"/>
+      <c r="N93" s="28"/>
+      <c r="O93" s="35"/>
+      <c r="P93" s="28"/>
+      <c r="Q93" s="15"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A94" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="15"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A95" s="27">
+        <v>1</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="15"/>
+      <c r="L95" s="15"/>
+      <c r="M95" s="15"/>
+      <c r="N95" s="15"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A96" s="27">
+        <v>2</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="15"/>
+      <c r="L96" s="15"/>
+      <c r="M96" s="15"/>
+      <c r="N96" s="15"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A97" s="27">
+        <v>3</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="15"/>
+      <c r="K97" s="15"/>
+      <c r="L97" s="15"/>
+      <c r="M97" s="15"/>
+      <c r="N97" s="15"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A98" s="27">
+        <v>4</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="15"/>
+      <c r="L98" s="15"/>
+      <c r="M98" s="15"/>
+      <c r="N98" s="15"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A99" s="27">
+        <v>5</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="15"/>
+      <c r="L99" s="15"/>
+      <c r="M99" s="15"/>
+      <c r="N99" s="15"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A100" s="22"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="15"/>
+      <c r="L100" s="15"/>
+      <c r="M100" s="15"/>
+      <c r="N100" s="15"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A101" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B101" s="15"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="15"/>
+      <c r="K101" s="15"/>
+      <c r="L101" s="15"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="15"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A102" s="23">
+        <v>1</v>
+      </c>
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="15"/>
+      <c r="K102" s="15"/>
+      <c r="L102" s="15"/>
+      <c r="M102" s="15"/>
+      <c r="N102" s="15"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A103" s="23">
+        <v>2</v>
+      </c>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="15"/>
+      <c r="K103" s="15"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A104" s="23">
+        <v>3</v>
+      </c>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
